--- a/src/test/resources/data/out/loginLogout.xlsx
+++ b/src/test/resources/data/out/loginLogout.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>user</t>
   </si>
@@ -25,16 +25,22 @@
     <t>Result</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>password2</t>
+    <t>℗:qmTAYKS9UG87rNuUQ0Ao6Q==</t>
+  </si>
+  <si>
+    <t>sgrillon</t>
+  </si>
+  <si>
+    <t>sgrillon2</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>referencer</t>
   </si>
 </sst>
 </file>
@@ -401,42 +407,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/out/loginLogout.xlsx
+++ b/src/test/resources/data/out/loginLogout.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="11955"/>
+    <workbookView windowHeight="11955" windowWidth="28215" xWindow="270" yWindow="600"/>
   </bookViews>
   <sheets>
-    <sheet name="NoraUi-loginLogout" sheetId="1" r:id="rId1"/>
+    <sheet name="NoraUi-loginLogout" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="12">
   <si>
     <t>user</t>
   </si>
@@ -42,12 +42,22 @@
   <si>
     <t>referencer</t>
   </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Succès</t>
+  </si>
+  <si>
+    <t>Fail: /!\ Opening the page BAKERY. This error may be due to a non-responding proxy or its misconfiguration /!\</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="159" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -68,6 +78,786 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="4">
@@ -100,18 +890,174 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="159">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -125,10 +1071,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -286,7 +1232,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -295,13 +1241,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -311,7 +1257,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -320,7 +1266,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -329,7 +1275,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,12 +1285,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -375,7 +1321,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -394,7 +1340,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -406,8 +1352,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -415,10 +1361,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -445,6 +1391,9 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="156" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -456,8 +1405,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="130" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>